--- a/aerodynamic_properties/Trim_curve_data.xlsx
+++ b/aerodynamic_properties/Trim_curve_data.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="8280" windowHeight="7800"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="trim_ref" sheetId="1" r:id="rId1"/>
+    <sheet name="trim_flight" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>5.3</t>
   </si>
@@ -139,9 +140,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -149,7 +153,92 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -428,7 +517,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,4 +784,285 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>8045</v>
+      </c>
+      <c r="B2" s="2">
+        <v>148</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>388.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>426.5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>560.5</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>7710</v>
+      </c>
+      <c r="B3" s="2">
+        <v>160</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F3" s="2">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2">
+        <v>394</v>
+      </c>
+      <c r="H3" s="2">
+        <v>433.5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>578.5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>7320</v>
+      </c>
+      <c r="B4" s="2">
+        <v>174</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F4" s="2">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>400</v>
+      </c>
+      <c r="H4" s="2">
+        <v>440</v>
+      </c>
+      <c r="I4" s="2">
+        <v>594.5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>6900</v>
+      </c>
+      <c r="B5" s="2">
+        <v>182</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F5" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>407</v>
+      </c>
+      <c r="H5" s="2">
+        <v>448</v>
+      </c>
+      <c r="I5" s="2">
+        <v>611.5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>7410</v>
+      </c>
+      <c r="B6" s="2">
+        <v>138</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.95</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-16.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>393.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>432.5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>626.5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7630</v>
+      </c>
+      <c r="B7" s="2">
+        <v>130</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>390.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>428.5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>641.5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-6.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7850</v>
+      </c>
+      <c r="B8" s="2">
+        <v>121</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-35</v>
+      </c>
+      <c r="G8" s="2">
+        <v>386.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>424</v>
+      </c>
+      <c r="I8" s="2">
+        <v>653.5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-7.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:C2 G2:H2">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:F2 I2:J2 A3:J8">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>